--- a/Minecraft_Imitation/Assets/11.Data/BlockData.xlsx
+++ b/Minecraft_Imitation/Assets/11.Data/BlockData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Minecraft\Minecraft_Imitation\Assets\11.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF8DB78-FE22-4DDD-B60D-B66E2FC21CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF6D52-E1B2-42BA-95A2-DECBF86E0B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>BlockKind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,13 @@
   </si>
   <si>
     <t>DirtBreak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodenPlank</t>
+  </si>
+  <si>
+    <t>WoodenPlank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +161,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -198,10 +213,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -482,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -593,18 +609,38 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A6D108C-F3DD-4A79-BA49-17FEB8B9F9F4}">
           <x14:formula1>
-            <xm:f>Sheet2!$A$2:$A$6</xm:f>
+            <xm:f>Sheet2!$A$2:$A$1900</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A1048576</xm:sqref>
+          <xm:sqref>A1:A1048576 F6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{10C8EA81-ADFC-4FFE-B592-1E2DDA4D5C64}">
           <x14:formula1>
@@ -616,19 +652,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A1B42487-CA77-4CBA-A0FF-6C8F980B4A59}">
-          <x14:formula1>
-            <xm:f>Sheet2!$C$2:$C$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>D1:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{025ACDDE-4C0A-4370-90EC-41A59B0DEDDE}">
           <x14:formula1>
             <xm:f>Sheet2!$D$2:$D$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F1:F5 F7:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -641,7 +671,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -728,6 +758,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>

--- a/Minecraft_Imitation/Assets/11.Data/BlockData.xlsx
+++ b/Minecraft_Imitation/Assets/11.Data/BlockData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Minecraft\Minecraft_Imitation\Assets\11.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF6D52-E1B2-42BA-95A2-DECBF86E0B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FA0C7E-8BE9-4AFA-89A0-42FD76DFD1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="BlockData" sheetId="1" r:id="rId1"/>
+    <sheet name="CombinationData" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
   <si>
     <t>BlockKind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,13 +143,66 @@
   <si>
     <t>WoodenPlank</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CraftingTable</t>
+  </si>
+  <si>
+    <t>CraftingTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParticleKind(index 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParticleKind(index 1)</t>
+  </si>
+  <si>
+    <t>ParticleKind(index 2)</t>
+  </si>
+  <si>
+    <t>ParticleKind(index 3)</t>
+  </si>
+  <si>
+    <t>ParticleKind(index 4)</t>
+  </si>
+  <si>
+    <t>ParticleKind(index 5)</t>
+  </si>
+  <si>
+    <t>ParticleKind(index 6)</t>
+  </si>
+  <si>
+    <t>ParticleKind(index 7)</t>
+  </si>
+  <si>
+    <t>ParticleKind(index 8)</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>WoodenPickaxe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,14 +215,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -217,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -498,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -627,6 +673,26 @@
       </c>
       <c r="F6" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +706,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$1900</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A1048576 F6</xm:sqref>
+          <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{10C8EA81-ADFC-4FFE-B592-1E2DDA4D5C64}">
           <x14:formula1>
@@ -654,11 +720,11 @@
           </x14:formula1>
           <xm:sqref>D1:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{025ACDDE-4C0A-4370-90EC-41A59B0DEDDE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4193DF25-6272-45DB-95EC-3D46FBABF7E8}">
           <x14:formula1>
-            <xm:f>Sheet2!$D$2:$D$11</xm:f>
+            <xm:f>Sheet2!$D$2:$D$999</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F5 F7:F1048576</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -667,11 +733,223 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE74E03-A760-4E96-9A89-8E71370E9363}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="11" width="18.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{9A8C3BCC-E341-4538-8BC9-C4E0DD85786F}">
+      <formula1>1</formula1>
+      <formula2>64</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{827C6A43-2750-4FF9-9660-68348E8EB3F6}">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$2:$D$999</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576 C2:K1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EF5EAF-BADA-424A-BCDF-5DBF701EFD4C}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -681,7 +959,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -769,6 +1047,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
@@ -788,16 +1069,18 @@
         <v>15</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{ACAE3940-0189-4354-839D-ABC14A6EE4D2}">
-      <formula1>$B$2:$B$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{D747952E-60DB-4D5B-BA45-DF41C091C9BC}">
-      <formula1>$A$2:$A$6</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Minecraft_Imitation/Assets/11.Data/BlockData.xlsx
+++ b/Minecraft_Imitation/Assets/11.Data/BlockData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Minecraft\Minecraft_Imitation\Assets\11.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FA0C7E-8BE9-4AFA-89A0-42FD76DFD1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59804B8E-934A-49C3-A4A7-FF7BF6350CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="85">
   <si>
     <t>BlockKind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,130 @@
   </si>
   <si>
     <t>WoodenPickaxe</t>
+  </si>
+  <si>
+    <t>IronOre</t>
+  </si>
+  <si>
+    <t>IronOre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knife</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>RawPorkchop</t>
+  </si>
+  <si>
+    <t>StonePickaxe</t>
+  </si>
+  <si>
+    <t>IronPickaxe</t>
+  </si>
+  <si>
+    <t>GoldenPickaxe</t>
+  </si>
+  <si>
+    <t>GoldenPickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodenPickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondPickaxe</t>
+  </si>
+  <si>
+    <t>DiamondPickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneSword</t>
+  </si>
+  <si>
+    <t>StoneSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronSword</t>
+  </si>
+  <si>
+    <t>IronSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldenSword</t>
+  </si>
+  <si>
+    <t>WoodenSword</t>
+  </si>
+  <si>
+    <t>WoodenSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondSword</t>
+  </si>
+  <si>
+    <t>StoneAxe</t>
+  </si>
+  <si>
+    <t>IronAxe</t>
+  </si>
+  <si>
+    <t>GoldenAxe</t>
+  </si>
+  <si>
+    <t>WoodenAxe</t>
+  </si>
+  <si>
+    <t>WoodenAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondAxe</t>
+  </si>
+  <si>
+    <t>DiamondOre</t>
+  </si>
+  <si>
+    <t>DiamondOre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldOre</t>
+  </si>
+  <si>
+    <t>Glod</t>
+  </si>
+  <si>
+    <t>Glod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -544,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -693,6 +817,66 @@
       </c>
       <c r="F7" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -734,10 +918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE74E03-A760-4E96-9A89-8E71370E9363}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -858,13 +1042,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -887,36 +1071,526 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G19" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -946,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EF5EAF-BADA-424A-BCDF-5DBF701EFD4C}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1043,7 +1717,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -1051,32 +1725,156 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Minecraft_Imitation/Assets/11.Data/BlockData.xlsx
+++ b/Minecraft_Imitation/Assets/11.Data/BlockData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Minecraft\Minecraft_Imitation\Assets\11.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59804B8E-934A-49C3-A4A7-FF7BF6350CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F876C362-3AB2-4AD6-B764-198F2EBE7C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlockData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="86">
   <si>
     <t>BlockKind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,9 @@
   <si>
     <t>Diamond</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaves</t>
   </si>
 </sst>
 </file>
@@ -668,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -707,7 +710,7 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -877,6 +880,26 @@
       </c>
       <c r="F10" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -920,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE74E03-A760-4E96-9A89-8E71370E9363}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1623,7 +1646,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1753,6 +1776,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>

--- a/Minecraft_Imitation/Assets/11.Data/BlockData.xlsx
+++ b/Minecraft_Imitation/Assets/11.Data/BlockData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Minecraft\Minecraft_Imitation\Assets\11.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F876C362-3AB2-4AD6-B764-198F2EBE7C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB85CD58-0534-4A7D-8A14-5D6CFA04ECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlockData" sheetId="1" r:id="rId1"/>
@@ -673,16 +673,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="20.58203125" customWidth="1"/>
+    <col min="1" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -702,7 +702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -722,7 +722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -742,7 +742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -762,7 +762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -782,7 +782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -802,7 +802,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -822,7 +822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -842,7 +842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -862,7 +862,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -882,7 +882,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -943,16 +943,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE74E03-A760-4E96-9A89-8E71370E9363}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="11" width="18.58203125" customWidth="1"/>
+    <col min="1" max="11" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -987,7 +987,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1649,12 +1649,12 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.58203125" customWidth="1"/>
+    <col min="1" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -1783,122 +1783,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>84</v>
       </c>
